--- a/doc/功能说明/cas功能说明.xlsx
+++ b/doc/功能说明/cas功能说明.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Console后台管理端" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Runtime爬虫核心" sheetId="3" r:id="rId1"/>
+    <sheet name="Console后台管理端" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -655,10 +655,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,19 +1118,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>